--- a/dumps/Stocks/Jupiter Wagons Limited.xlsx
+++ b/dumps/Stocks/Jupiter Wagons Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,23 +590,62 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3153.26</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
         <v>301.2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>3033.38</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3.01</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>18.37</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Jupiter Wagons Limited.xlsx
+++ b/dumps/Stocks/Jupiter Wagons Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,21 +590,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>313.1</v>
+        <v>296.2</v>
       </c>
       <c r="F5" t="n">
-        <v>3153.26</v>
+        <v>2976.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.13</v>
+          <t>CN#252611604850</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>19.13</v>
+        <v>14.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -613,7 +610,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46062</v>
+        <v>46057</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -629,23 +626,422 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
+        <v>306.35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3078.8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CN#252611485581</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>319.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3215.3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CN#252611091662</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>308.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3096.9</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CN#252611030591</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>312.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6274.2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CN#252610906344</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>328.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3300.4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CN#252610644483</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>291.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5861.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CN#252610469431</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>321.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6470.2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CN#252610347614</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3399.4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CN#252610159828</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J13">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3323</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CN#252609981253</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J14">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3403.9</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CN#252609871125</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J15">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3153.26</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="J16">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
         <v>301.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F17" t="n">
         <v>3033.38</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H17" t="n">
         <v>3.01</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I17" t="n">
         <v>18.37</v>
       </c>
-      <c r="J6">
+      <c r="J17">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Jupiter Wagons Limited.xlsx
+++ b/dumps/Stocks/Jupiter Wagons Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,18 +590,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>313.1</v>
+        <v>301.2</v>
       </c>
       <c r="F5" t="n">
-        <v>3146.7</v>
+        <v>3027.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,11 +610,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,18 +626,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>296.2</v>
+        <v>313.1</v>
       </c>
       <c r="F6" t="n">
-        <v>2976.8</v>
+        <v>3146.7</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -662,18 +662,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>306.35</v>
+        <v>296.2</v>
       </c>
       <c r="F7" t="n">
-        <v>3078.8</v>
+        <v>2976.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,7 +682,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -698,18 +698,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>319.93</v>
+        <v>306.35</v>
       </c>
       <c r="F8" t="n">
-        <v>3215.3</v>
+        <v>3078.8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -718,7 +718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -734,18 +734,18 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>308.15</v>
+        <v>319.93</v>
       </c>
       <c r="F9" t="n">
-        <v>3096.9</v>
+        <v>3215.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -754,7 +754,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -767,21 +767,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>312.15</v>
+        <v>308.15</v>
       </c>
       <c r="F10" t="n">
-        <v>6274.2</v>
+        <v>3096.9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>31.2</v>
+        <v>15.4</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -790,7 +790,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>328.4</v>
+        <v>312.15</v>
       </c>
       <c r="F11" t="n">
-        <v>3300.4</v>
+        <v>6274.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16.4</v>
+        <v>31.2</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -826,7 +826,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -839,21 +839,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>291.6</v>
+        <v>328.4</v>
       </c>
       <c r="F12" t="n">
-        <v>5861.2</v>
+        <v>3300.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29.2</v>
+        <v>16.4</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -862,7 +862,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -878,18 +878,18 @@
         <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>321.9</v>
+        <v>291.6</v>
       </c>
       <c r="F13" t="n">
-        <v>6470.2</v>
+        <v>5861.2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>32.2</v>
+        <v>29.2</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -898,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -911,21 +911,21 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>338.25</v>
+        <v>321.9</v>
       </c>
       <c r="F14" t="n">
-        <v>3399.4</v>
+        <v>6470.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16.9</v>
+        <v>32.2</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -934,7 +934,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -950,18 +950,18 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>330.65</v>
+        <v>338.25</v>
       </c>
       <c r="F15" t="n">
-        <v>3323</v>
+        <v>3399.4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -970,7 +970,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -986,20 +986,56 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3323</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CN#252609981253</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J16">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
         <v>338.7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F17" t="n">
         <v>3403.9</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>CN#252609871125</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>16.9</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <f>Index!$C$2</f>
         <v/>
       </c>
